--- a/TaguchiVRP.xlsx
+++ b/TaguchiVRP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenayakgun/Documents/GitHub/rmfs-simulation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26455DC5-67FD-084D-ABE0-09452B6A4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4300" yWindow="860" windowWidth="22560" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <sheet name="Observed4" sheetId="9" r:id="rId9"/>
     <sheet name="TotalSteps" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +170,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,9 +291,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,14 +467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +508,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +525,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -526,7 +542,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -549,34 +565,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>261</v>
       </c>
@@ -587,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -617,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -631,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F2">
         <v>17</v>
@@ -640,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -654,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F3">
         <v>17</v>
@@ -663,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -677,7 +693,7 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>41.39460686111104</v>
+        <v>41.394606861111043</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -686,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -700,7 +716,7 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>41.39483636111103</v>
+        <v>41.394836361111032</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -709,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120</v>
       </c>
@@ -723,7 +739,7 @@
         <v>106</v>
       </c>
       <c r="E6">
-        <v>41.20536111111098</v>
+        <v>41.205361111110982</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -732,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -746,7 +762,7 @@
         <v>102</v>
       </c>
       <c r="E7">
-        <v>41.20249883333317</v>
+        <v>41.202498833333173</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -755,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>180</v>
       </c>
@@ -778,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>180</v>
       </c>
@@ -792,7 +808,7 @@
         <v>146</v>
       </c>
       <c r="E9">
-        <v>41.03438238888867</v>
+        <v>41.034382388888673</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -801,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240</v>
       </c>
@@ -815,7 +831,7 @@
         <v>191</v>
       </c>
       <c r="E10">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -824,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>240</v>
       </c>
@@ -838,7 +854,7 @@
         <v>196</v>
       </c>
       <c r="E11">
-        <v>40.84204486111081</v>
+        <v>40.842044861110807</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -847,7 +863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
@@ -861,7 +877,7 @@
         <v>191</v>
       </c>
       <c r="E12">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -870,7 +886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
@@ -884,7 +900,7 @@
         <v>222</v>
       </c>
       <c r="E13">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -893,7 +909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>360</v>
       </c>
@@ -907,7 +923,7 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -916,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>360</v>
       </c>
@@ -930,7 +946,7 @@
         <v>222</v>
       </c>
       <c r="E15">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -939,7 +955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>420</v>
       </c>
@@ -953,7 +969,7 @@
         <v>191</v>
       </c>
       <c r="E16">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>420</v>
       </c>
@@ -976,7 +992,7 @@
         <v>222</v>
       </c>
       <c r="E17">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -985,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>480</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>191</v>
       </c>
       <c r="E18">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1008,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>480</v>
       </c>
@@ -1022,7 +1038,7 @@
         <v>222</v>
       </c>
       <c r="E19">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1031,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>540</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>191</v>
       </c>
       <c r="E20">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1054,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>540</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>222</v>
       </c>
       <c r="E21">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1077,7 +1093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>600</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>191</v>
       </c>
       <c r="E22">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1100,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>600</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>222</v>
       </c>
       <c r="E23">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1123,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>660</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>191</v>
       </c>
       <c r="E24">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1146,7 +1162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>660</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>222</v>
       </c>
       <c r="E25">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1169,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>720</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>191</v>
       </c>
       <c r="E26">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1192,7 +1208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>720</v>
       </c>
@@ -1206,7 +1222,7 @@
         <v>222</v>
       </c>
       <c r="E27">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1215,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>780</v>
       </c>
@@ -1229,7 +1245,7 @@
         <v>191</v>
       </c>
       <c r="E28">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1238,7 +1254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>780</v>
       </c>
@@ -1252,7 +1268,7 @@
         <v>222</v>
       </c>
       <c r="E29">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1261,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>840</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>191</v>
       </c>
       <c r="E30">
-        <v>40.89787222222201</v>
+        <v>40.897872222222013</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1284,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>840</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>222</v>
       </c>
       <c r="E31">
-        <v>40.75134408333302</v>
+        <v>40.751344083333016</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1313,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1352,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1382,14 +1398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1426,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1435,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -1458,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>41.40909361111105</v>
+        <v>41.409093611111047</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -1481,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1495,7 +1511,7 @@
         <v>49</v>
       </c>
       <c r="E5">
-        <v>41.41882794444439</v>
+        <v>41.418827944444388</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -1504,7 +1520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1518,7 +1534,7 @@
         <v>97</v>
       </c>
       <c r="E6">
-        <v>41.25357377777769</v>
+        <v>41.253573777777689</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1527,7 +1543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1541,7 +1557,7 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>41.22958219444433</v>
+        <v>41.229582194444333</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1550,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>180</v>
       </c>
@@ -1564,7 +1580,7 @@
         <v>139</v>
       </c>
       <c r="E8">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1573,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>180</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>146</v>
       </c>
       <c r="E9">
-        <v>41.06052068055538</v>
+        <v>41.060520680555378</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1596,7 +1612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>139</v>
       </c>
       <c r="E10">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1619,7 +1635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>240</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>197</v>
       </c>
       <c r="E11">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1642,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
@@ -1656,7 +1672,7 @@
         <v>139</v>
       </c>
       <c r="E12">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1665,7 +1681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
@@ -1679,7 +1695,7 @@
         <v>197</v>
       </c>
       <c r="E13">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1688,7 +1704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>360</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>139</v>
       </c>
       <c r="E14">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1711,7 +1727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>360</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>197</v>
       </c>
       <c r="E15">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1734,7 +1750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>420</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>139</v>
       </c>
       <c r="E16">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1757,7 +1773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>420</v>
       </c>
@@ -1771,7 +1787,7 @@
         <v>197</v>
       </c>
       <c r="E17">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1780,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>480</v>
       </c>
@@ -1794,7 +1810,7 @@
         <v>139</v>
       </c>
       <c r="E18">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1803,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>480</v>
       </c>
@@ -1817,7 +1833,7 @@
         <v>197</v>
       </c>
       <c r="E19">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1826,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>540</v>
       </c>
@@ -1840,7 +1856,7 @@
         <v>139</v>
       </c>
       <c r="E20">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1849,7 +1865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>540</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>197</v>
       </c>
       <c r="E21">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1872,7 +1888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>600</v>
       </c>
@@ -1886,7 +1902,7 @@
         <v>139</v>
       </c>
       <c r="E22">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1895,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>600</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>197</v>
       </c>
       <c r="E23">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1918,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>660</v>
       </c>
@@ -1932,7 +1948,7 @@
         <v>139</v>
       </c>
       <c r="E24">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1941,7 +1957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>660</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>197</v>
       </c>
       <c r="E25">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1964,7 +1980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>720</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>139</v>
       </c>
       <c r="E26">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1987,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>720</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>197</v>
       </c>
       <c r="E27">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2010,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>780</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>139</v>
       </c>
       <c r="E28">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2033,7 +2049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>780</v>
       </c>
@@ -2047,7 +2063,7 @@
         <v>197</v>
       </c>
       <c r="E29">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2056,7 +2072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>840</v>
       </c>
@@ -2070,7 +2086,7 @@
         <v>139</v>
       </c>
       <c r="E30">
-        <v>41.09828344444431</v>
+        <v>41.098283444444313</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2079,7 +2095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>840</v>
       </c>
@@ -2093,7 +2109,7 @@
         <v>197</v>
       </c>
       <c r="E31">
-        <v>40.85939388888863</v>
+        <v>40.859393888888633</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2108,14 +2124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2147,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2171,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2185,14 +2201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2229,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -2238,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2252,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -2261,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>41.39483636111103</v>
+        <v>41.394836361111032</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -2284,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -2298,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>41.41504766666665</v>
+        <v>41.415047666666652</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -2307,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>104</v>
       </c>
       <c r="E6">
-        <v>41.20392997222208</v>
+        <v>41.203929972222078</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -2330,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>108</v>
       </c>
       <c r="E7">
-        <v>41.22104949999991</v>
+        <v>41.221049499999907</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -2353,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>180</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>153</v>
       </c>
       <c r="E8">
-        <v>41.03701516666649</v>
+        <v>41.037015166666492</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2376,7 +2392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>180</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>160</v>
       </c>
       <c r="E9">
-        <v>41.01588586111094</v>
+        <v>41.015885861110938</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2399,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240</v>
       </c>
@@ -2413,7 +2429,7 @@
         <v>203</v>
       </c>
       <c r="E10">
-        <v>40.84705384722198</v>
+        <v>40.847053847221979</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2422,7 +2438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>240</v>
       </c>
@@ -2436,7 +2452,7 @@
         <v>210</v>
       </c>
       <c r="E11">
-        <v>40.82117212499975</v>
+        <v>40.821172124999748</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2445,7 +2461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>222</v>
       </c>
       <c r="E12">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2468,7 +2484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
@@ -2482,7 +2498,7 @@
         <v>223</v>
       </c>
       <c r="E13">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2491,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>360</v>
       </c>
@@ -2505,7 +2521,7 @@
         <v>222</v>
       </c>
       <c r="E14">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2514,7 +2530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>360</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>223</v>
       </c>
       <c r="E15">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2537,7 +2553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>420</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>222</v>
       </c>
       <c r="E16">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2560,7 +2576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>420</v>
       </c>
@@ -2574,7 +2590,7 @@
         <v>223</v>
       </c>
       <c r="E17">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2583,7 +2599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>480</v>
       </c>
@@ -2597,7 +2613,7 @@
         <v>222</v>
       </c>
       <c r="E18">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2606,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>480</v>
       </c>
@@ -2620,7 +2636,7 @@
         <v>223</v>
       </c>
       <c r="E19">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2629,7 +2645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>540</v>
       </c>
@@ -2643,7 +2659,7 @@
         <v>222</v>
       </c>
       <c r="E20">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2652,7 +2668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>540</v>
       </c>
@@ -2666,7 +2682,7 @@
         <v>223</v>
       </c>
       <c r="E21">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2675,7 +2691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>600</v>
       </c>
@@ -2689,7 +2705,7 @@
         <v>222</v>
       </c>
       <c r="E22">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2698,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>600</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>223</v>
       </c>
       <c r="E23">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2721,7 +2737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>660</v>
       </c>
@@ -2735,7 +2751,7 @@
         <v>222</v>
       </c>
       <c r="E24">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2744,7 +2760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>660</v>
       </c>
@@ -2758,7 +2774,7 @@
         <v>223</v>
       </c>
       <c r="E25">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2767,7 +2783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>720</v>
       </c>
@@ -2781,7 +2797,7 @@
         <v>222</v>
       </c>
       <c r="E26">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2790,7 +2806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>720</v>
       </c>
@@ -2804,7 +2820,7 @@
         <v>223</v>
       </c>
       <c r="E27">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2813,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>780</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>222</v>
       </c>
       <c r="E28">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2836,7 +2852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>780</v>
       </c>
@@ -2850,7 +2866,7 @@
         <v>223</v>
       </c>
       <c r="E29">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2859,7 +2875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>840</v>
       </c>
@@ -2873,7 +2889,7 @@
         <v>222</v>
       </c>
       <c r="E30">
-        <v>40.77035374999972</v>
+        <v>40.770353749999721</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2882,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>840</v>
       </c>
@@ -2896,7 +2912,7 @@
         <v>223</v>
       </c>
       <c r="E31">
-        <v>40.76869311111084</v>
+        <v>40.768693111110842</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2911,14 +2927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2942,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2980,14 +2996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F2">
         <v>13</v>
@@ -3033,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3047,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>41.59833936111112</v>
+        <v>41.598339361111123</v>
       </c>
       <c r="F3">
         <v>13</v>
@@ -3056,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -3070,7 +3086,7 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>41.42335086111108</v>
+        <v>41.423350861111082</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -3079,7 +3095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -3093,7 +3109,7 @@
         <v>49</v>
       </c>
       <c r="E5">
-        <v>41.41882794444439</v>
+        <v>41.418827944444388</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -3102,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120</v>
       </c>
@@ -3116,7 +3132,7 @@
         <v>103</v>
       </c>
       <c r="E6">
-        <v>41.23172890277768</v>
+        <v>41.231728902777682</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3125,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -3139,7 +3155,7 @@
         <v>97</v>
       </c>
       <c r="E7">
-        <v>41.25594998611103</v>
+        <v>41.255949986111027</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -3148,7 +3164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>180</v>
       </c>
@@ -3171,7 +3187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>180</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>121</v>
       </c>
       <c r="E9">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3194,7 +3210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240</v>
       </c>
@@ -3217,7 +3233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>240</v>
       </c>
@@ -3231,7 +3247,7 @@
         <v>121</v>
       </c>
       <c r="E11">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3240,7 +3256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
@@ -3263,7 +3279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
@@ -3277,7 +3293,7 @@
         <v>121</v>
       </c>
       <c r="E13">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3286,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>360</v>
       </c>
@@ -3309,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>360</v>
       </c>
@@ -3323,7 +3339,7 @@
         <v>121</v>
       </c>
       <c r="E15">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3332,7 +3348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>420</v>
       </c>
@@ -3355,7 +3371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>420</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>121</v>
       </c>
       <c r="E17">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3378,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>480</v>
       </c>
@@ -3401,7 +3417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>480</v>
       </c>
@@ -3415,7 +3431,7 @@
         <v>121</v>
       </c>
       <c r="E19">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3424,7 +3440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>540</v>
       </c>
@@ -3447,7 +3463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>540</v>
       </c>
@@ -3461,7 +3477,7 @@
         <v>121</v>
       </c>
       <c r="E21">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3470,7 +3486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>600</v>
       </c>
@@ -3493,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>600</v>
       </c>
@@ -3507,7 +3523,7 @@
         <v>121</v>
       </c>
       <c r="E23">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3516,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>660</v>
       </c>
@@ -3539,7 +3555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>660</v>
       </c>
@@ -3553,7 +3569,7 @@
         <v>121</v>
       </c>
       <c r="E25">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3562,7 +3578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>720</v>
       </c>
@@ -3585,7 +3601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>720</v>
       </c>
@@ -3599,7 +3615,7 @@
         <v>121</v>
       </c>
       <c r="E27">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3608,7 +3624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>780</v>
       </c>
@@ -3631,7 +3647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>780</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>121</v>
       </c>
       <c r="E29">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3654,7 +3670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>840</v>
       </c>
@@ -3677,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>840</v>
       </c>
@@ -3691,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="E31">
-        <v>41.16144186111099</v>
+        <v>41.161441861110987</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3706,14 +3722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3721,7 +3737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3729,7 +3745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3737,7 +3753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3753,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3761,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
